--- a/docentes/Jimenez Nieto Enrique Estadisticos 2020.xlsx
+++ b/docentes/Jimenez Nieto Enrique Estadisticos 2020.xlsx
@@ -1120,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1235,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
